--- a/medicine.xlsx
+++ b/medicine.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mootonpk/Desktop/ATB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550D3181-BB41-F244-83B2-BB17FFCFBB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A169C425-647F-0D44-AB83-C81B5FBE0CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="12040" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="12" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId2"/>
-    <sheet name="Sheet22" sheetId="13" r:id="rId3"/>
+    <sheet name="Sheet22" sheetId="13" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="155">
   <si>
     <t>type</t>
   </si>
@@ -365,10 +364,6 @@
   </si>
   <si>
     <t>type shape</t>
-  </si>
-  <si>
-    <t>S. pneumoniae
-MRSA</t>
   </si>
   <si>
     <t>spiral</t>
@@ -584,6 +579,11 @@
   <si>
     <t>P. aeruginosa
 A. baumannii</t>
+  </si>
+  <si>
+    <t>S. pneumoniae
+S. aureus
+enterococcus</t>
   </si>
 </sst>
 </file>
@@ -851,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA349112-1F64-CA46-85FA-C8F474ADC83B}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -891,7 +891,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>101</v>
@@ -911,7 +911,7 @@
         <v>101</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="112" x14ac:dyDescent="0.15">
@@ -925,7 +925,7 @@
         <v>101</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.15">
@@ -987,7 +987,7 @@
         <v>84</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="42" x14ac:dyDescent="0.15">
@@ -1004,7 +1004,7 @@
         <v>84</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="98" x14ac:dyDescent="0.15">
@@ -1018,7 +1018,7 @@
         <v>84</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="98" x14ac:dyDescent="0.15">
@@ -1032,7 +1032,7 @@
         <v>84</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="98" x14ac:dyDescent="0.15">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="98" x14ac:dyDescent="0.15">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="42" x14ac:dyDescent="0.15">
@@ -1081,7 +1081,7 @@
         <v>75</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42" x14ac:dyDescent="0.15">
@@ -1098,7 +1098,7 @@
         <v>75</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="70" x14ac:dyDescent="0.15">
@@ -1189,7 +1189,7 @@
         <v>75</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="42" x14ac:dyDescent="0.15">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>75</v>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>75</v>
@@ -1284,72 +1284,72 @@
     </row>
     <row r="26" spans="1:6" ht="112" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="112" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="154" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="D28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="154" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>53</v>
@@ -1363,38 +1363,38 @@
     </row>
     <row r="31" spans="1:6" ht="56" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -1406,15 +1406,15 @@
         <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>34</v>
@@ -1423,66 +1423,66 @@
         <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="70" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="70" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1491,55 +1491,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF505F3-52B2-174A-B4DD-F6007F0A13A8}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" t="str">
-        <f>B2&amp;" "&amp;C2</f>
-        <v>positive strep</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A86AC9E-A56C-1440-B017-249A5C20CAD9}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1913,7 +1869,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
@@ -2138,13 +2094,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
@@ -2154,7 +2110,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>79</v>
@@ -2169,7 +2125,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>2</v>
@@ -2184,7 +2140,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>2</v>
@@ -2199,7 +2155,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>2</v>
@@ -2214,7 +2170,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>2</v>
@@ -2229,7 +2185,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>2</v>
